--- a/biology/Médecine/Syndrome_de_Nimègue/Syndrome_de_Nimègue.xlsx
+++ b/biology/Médecine/Syndrome_de_Nimègue/Syndrome_de_Nimègue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_Nim%C3%A8gue</t>
+          <t>Syndrome_de_Nimègue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Décrit en 1981[1], le syndrome de Nimègue, en anglais Nijmegen breakage syndrome abrégé en NBS, est une maladie autosomique récessive rare. Elle associe :
+Décrit en 1981, le syndrome de Nimègue, en anglais Nijmegen breakage syndrome abrégé en NBS, est une maladie autosomique récessive rare. Elle associe :
 petite taille
 microcéphalie d’apparition progressive
 perte progressive des fonctions cognitives
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_Nim%C3%A8gue</t>
+          <t>Syndrome_de_Nimègue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfants présentent généralement un petit poids à la naissance. La microcéphalie est présente dès la naissance ou apparaît secondairement La croissance de ces enfants est faible et leur taille ne dépasse pas le troisième centile.
 À mesure que l’enfant grandit, les caractéristiques faciales sont plus nettes : front fuyant, grand nez, joues proéminentes et petit menton.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_Nim%C3%A8gue</t>
+          <t>Syndrome_de_Nimègue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Biologique
-Déficit de l’immunité cellulaire et humoral
+          <t>Biologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Déficit de l’immunité cellulaire et humoral
 Agammaglobulinémie chez un tiers des patients
 Diminution de la concentration des CD3 et CD4
 Fragilité des chromosomes
@@ -570,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_de_Nim%C3%A8gue</t>
+          <t>Syndrome_de_Nimègue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +607,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(en) Patrick J Concannon, Richard A Gatti, Nijmegen Breakage Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Patrick J Concannon, Richard A Gatti, Nijmegen Breakage Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
